--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1313728.481772297</v>
+        <v>1311434.886315704</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283197</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>27.2020287480412</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>21.12998984935888</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -871,19 +871,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>270.0182056140466</v>
+        <v>115.5317469422792</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>253.8293786295303</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.9786181363403</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>32.23168924578712</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>54.41653174045879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>98.12640288586319</v>
+        <v>98.12640288586317</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="C13" t="n">
-        <v>123.9815576456761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>104.8913819999765</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520965</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>148.1185786361432</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>75.21356227238219</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428077</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>55.52079624060237</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520963</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>28.75188085811859</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>213.9987150475857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.7518808581174</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>35.88641949135547</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>74.20064764874429</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>864.8611267254487</v>
+        <v>1238.326884986528</v>
       </c>
       <c r="C2" t="n">
-        <v>864.8611267254487</v>
+        <v>869.3643680461164</v>
       </c>
       <c r="D2" t="n">
-        <v>864.8611267254487</v>
+        <v>869.3643680461164</v>
       </c>
       <c r="E2" t="n">
-        <v>864.8611267254487</v>
+        <v>483.5761154478722</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>72.5902106582646</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4370,10 +4370,10 @@
         <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.46096678957</v>
+        <v>1624.92672505065</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4404,28 +4404,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>114.543262603435</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>299.264883884485</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159568</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751768</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1546.610451890394</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="C4" t="n">
-        <v>1546.610451890394</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="D4" t="n">
-        <v>1546.610451890394</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E4" t="n">
-        <v>1546.610451890394</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392483</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075599</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2040.148693270334</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2040.148693270334</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>2040.148693270334</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>1767.403031033924</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="X4" t="n">
-        <v>1767.403031033924</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="Y4" t="n">
-        <v>1546.610451890394</v>
+        <v>453.7539249574967</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2232.598233480554</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4550,25 +4550,25 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4583,10 +4583,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2619.198073544675</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4714,61 +4714,61 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658018</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783661</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V7" t="n">
-        <v>1416.425065783661</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W7" t="n">
-        <v>1416.425065783661</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1416.425065783661</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1195.632486640131</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y8" t="n">
-        <v>1643.543434242328</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,34 +4887,34 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4948,16 +4948,16 @@
         <v>165.6296951047725</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5030,7 +5030,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,22 +5039,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5121,19 +5121,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400694</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>388.6197041282753</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648817</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138393</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703091</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5358,19 +5358,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400695</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703092</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
@@ -5522,16 +5522,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556308</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
@@ -5759,16 +5759,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400703</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121634</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121634</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121634</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121634</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270434</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6154,43 +6154,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510507</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854705</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648818</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138402</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.50206557031</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327628</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048559</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925202</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>296.788222910127</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122167</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>149.8982754122167</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>149.8982754122167</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630025</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.097755135313</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>552.3777707160738</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>383.4415877881669</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>383.4415877881669</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1472.225535624822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1182.808365587861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>954.8188146898436</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>734.0262355463135</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,34 +6929,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1052.829365488567</v>
+        <v>513.8536007400685</v>
       </c>
       <c r="C37" t="n">
-        <v>883.8931825606599</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>733.7765431483241</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>585.863449565931</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>438.9735020680206</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>271.7774027829005</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>130.0655716250986</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782927</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038313</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797714</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U37" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V37" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W37" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138384</v>
       </c>
       <c r="Y37" t="n">
-        <v>1234.477830318806</v>
+        <v>695.5020655703082</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7163,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958734</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>633.9926444679666</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>483.8760050556308</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E40" t="n">
-        <v>335.9629114732377</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7546,25 +7546,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7643,25 +7643,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9556134883066889</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="C13" t="n">
-        <v>43.2652634529517</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>62.35543909865132</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>31.71340154579411</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>71.22040037418698</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194312</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986326</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>25.74504007796317</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,16 +24889,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648127</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>38.13892827624232</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405104</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>45.37941682721006</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>55.21102825632966</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>71.22040037418695</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>937367.7491186918</v>
+        <v>937367.749118692</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>937367.7491186918</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937367.7491186919</v>
+        <v>937367.749118692</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>937367.7491186919</v>
+        <v>937367.749118692</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937367.7491186919</v>
+        <v>937367.7491186918</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>937367.7491186921</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937367.7491186921</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>937367.7491186919</v>
+        <v>937367.749118692</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
@@ -26347,13 +26347,13 @@
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121053</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605439</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26418,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312027</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26439,7 +26439,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852994.9045044165</v>
+        <v>-852994.9045044163</v>
       </c>
       <c r="C6" t="n">
-        <v>92118.20065195113</v>
+        <v>92118.20065195073</v>
       </c>
       <c r="D6" t="n">
-        <v>295556.9422640562</v>
+        <v>295556.9422640565</v>
       </c>
       <c r="E6" t="n">
-        <v>47805.82386097238</v>
+        <v>47771.08593553698</v>
       </c>
       <c r="F6" t="n">
-        <v>373218.2856683276</v>
+        <v>373183.547742892</v>
       </c>
       <c r="G6" t="n">
-        <v>373218.2856683275</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="H6" t="n">
-        <v>373218.2856683276</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="I6" t="n">
-        <v>373218.2856683276</v>
+        <v>373183.5477428921</v>
       </c>
       <c r="J6" t="n">
-        <v>205613.107858345</v>
+        <v>205578.3699329094</v>
       </c>
       <c r="K6" t="n">
-        <v>324108.1929622733</v>
+        <v>324073.4550368375</v>
       </c>
       <c r="L6" t="n">
-        <v>373218.2856683276</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="M6" t="n">
-        <v>288163.2577328157</v>
+        <v>288128.5198073801</v>
       </c>
       <c r="N6" t="n">
-        <v>373218.2856683275</v>
+        <v>373183.5477428918</v>
       </c>
       <c r="O6" t="n">
-        <v>373218.2856683276</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="P6" t="n">
-        <v>373218.2856683275</v>
+        <v>373183.5477428918</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26960,10 +26960,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757585</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>379.6740169936703</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>390.4177129235951</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>16.50479272254444</v>
+        <v>170.9912513943118</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>111.4435131414772</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>277.2566436803269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.853362045597</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>273.0942536208836</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>317.0092794716259</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>331.8214069155948</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>47.29464513706806</v>
+        <v>47.29464513706807</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-9.297825982088264e-14</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,7 +31856,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32078,7 +32078,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>752.2150000824579</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,16 +32786,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,7 +32804,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.93583437922414</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34793,7 +34793,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,7 +35504,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35741,7 +35741,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>620.8732879991246</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,7 +36452,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295035</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
